--- a/biology/Zoologie/Eunectes_notaeus/Eunectes_notaeus.xlsx
+++ b/biology/Zoologie/Eunectes_notaeus/Eunectes_notaeus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunectes notaeus est une espèce de serpents de la famille des Boidae[1]. En français il est nommé Anaconda jaune[2], Anaconda du Paraguay[2] ou Anaconda curiyú.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eunectes notaeus est une espèce de serpents de la famille des Boidae. En français il est nommé Anaconda jaune, Anaconda du Paraguay ou Anaconda curiyú.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Bolivie ;
 au Paraguay ;
 au Brésil dans les États du Mato Grosso, du Mato Grosso do Sul, du Rio Grande do Sul, du Paraná et de São Paulo ;
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anaconda jaune se démarque de l'anaconda vert (Eunectes murinus) par sa plus petite taille, en général 2 m à 3 m. Les plus grands spécimens atteignent 4 ou 5 mètres.
 Eunectes notaeus vit de manière semi-aquatique et semi-arboricole.
@@ -578,7 +594,9 @@
           <t>Captivité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Argentine, il est parfois utilisé pour débarrasser les habitations rurales des rats et autres rongeurs.
 En France, son élevage nécessite un certificat de capacité car il est cité par l'arrêté ministériel du 10 août 2004 comme étant une espèce dangereuse. Malgré cela, les conditions sont quasiment les mêmes que pour l'élevage de l'anaconda vert.
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cope, 1863 "1862"  : Synopsis of the species of Holcosus and Ameiva, with diagnoses of new West Indian and South American Colubridae. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 60-82 (texte intégral).</t>
         </is>
